--- a/inf3.xlsx
+++ b/inf3.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://londonbusinessschool1000-my.sharepoint.com/personal/sunnyw_london_edu/Documents/courtcase/round 3 individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{69BE89D5-1ED5-4EE4-BE0C-CF76CDC44BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D5F53E0-CFB3-429B-94F7-49AB31B70767}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{69BE89D5-1ED5-4EE4-BE0C-CF76CDC44BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC60DB80-A1AD-4C02-A843-C9516BBC46A4}"/>
   <bookViews>
-    <workbookView xWindow="3170" yWindow="660" windowWidth="16240" windowHeight="11020" xr2:uid="{D44A2131-BC9C-48CF-8044-894505ADFEAC}"/>
+    <workbookView xWindow="2100" yWindow="470" windowWidth="16240" windowHeight="11020" xr2:uid="{D44A2131-BC9C-48CF-8044-894505ADFEAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6651" uniqueCount="4006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8053" uniqueCount="4006">
   <si>
     <t xml:space="preserve"> 振樺電 劉惠青 家</t>
   </si>
@@ -12429,11 +12430,7034 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A496703-63DF-4121-8D30-3D8DFD1B0826}">
+  <dimension ref="A1:A1402"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A504" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A505" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A506" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A507" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A509" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A510" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A511" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A512" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A513" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A516" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A518" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A523" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A524" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A525" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A526" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A529" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A530" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A531" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A532" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A533" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A534" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A535" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A536" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A537" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A538" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A539" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A541" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A542" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A543" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A544" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A545" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A546" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A547" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A548" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A549" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A550" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A551" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A552" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A553" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A554" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A555" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A556" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A557" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A558" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A559" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A560" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A561" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A562" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A563" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A564" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A565" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A566" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A567" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A568" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A569" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A570" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A571" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A572" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A573" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A574" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A575" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A576" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A577" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A578" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A579" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A580" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A581" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A582" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A583" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A584" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A585" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A586" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A587" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A588" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A589" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A590" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A591" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A592" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A593" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A594" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A595" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A596" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A597" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A598" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A599" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A600" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A601" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A602" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A603" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A604" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A605" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A606" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A607" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A608" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A609" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A610" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A611" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A612" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A613" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A614" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A615" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A616" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A617" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A618" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A619" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A620" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A621" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A622" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A623" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A624" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A625" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A626" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A627" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A628" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A629" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A630" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A631" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A632" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A633" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A634" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A635" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A636" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A637" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A638" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A639" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A640" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A641" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A642" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A643" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A644" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A645" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A646" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A647" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A648" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A649" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A650" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A651" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A652" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A653" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A654" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A655" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A656" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A657" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A658" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A659" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A660" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A661" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A662" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A663" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A664" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A665" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A666" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A667" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A668" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A669" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A670" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A671" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A672" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A673" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A674" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A675" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A676" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A677" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A678" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A679" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A680" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A681" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A682" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A683" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A684" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A685" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A686" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A687" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A688" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A689" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A690" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A691" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A692" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A693" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A694" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A695" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A696" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A697" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A698" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A699" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A700" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A701" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A702" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A703" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A704" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A705" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A706" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A707" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A708" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A709" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A710" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A711" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A712" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A713" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A714" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A715" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A716" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A717" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A718" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A719" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A720" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A721" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A722" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A723" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A724" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A725" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A726" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A727" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A728" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A729" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A730" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A731" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A732" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A733" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A734" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A735" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A736" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A737" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A738" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A739" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A740" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A741" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A742" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A743" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A744" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A745" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A746" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A747" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A748" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A749" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A750" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A751" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A752" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A753" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A754" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A755" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A756" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A757" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A758" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A759" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A760" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A761" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A762" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A763" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A764" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A765" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A766" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A767" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A768" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A769" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A770" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A771" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A776" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A777" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A778" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A779" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A780" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A781" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A782" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A783" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A784" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A785" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A786" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A787" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A789" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A790" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A791" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A792" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A794" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A795" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A796" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A797" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A798" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A799" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A800" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A801" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A802" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A803" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A804" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A805" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A806" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A807" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A808" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A809" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A810" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A811" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A812" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A813" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A814" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A815" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A816" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A817" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A818" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A819" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A820" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A821" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A822" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A823" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A824" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A825" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A826" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A827" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A828" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A829" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A830" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A831" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A832" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A833" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A834" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A835" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A836" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A837" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A838" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A839" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A840" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A841" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A842" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A843" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A844" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A845" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A846" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A847" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A848" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A849" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A850" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A851" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A852" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A853" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A854" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A855" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A856" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A857" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A858" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A859" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A860" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A861" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A862" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A863" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A864" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A865" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A866" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A867" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A868" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A869" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A870" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A871" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A872" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A873" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A874" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A875" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A876" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A877" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A878" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A879" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A880" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A881" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A882" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A883" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A884" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A885" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A886" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A887" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A888" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A889" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A890" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A891" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A892" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A893" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A894" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A895" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A896" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A897" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A898" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A899" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A900" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A901" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A902" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A903" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A904" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A905" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A906" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A907" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A908" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A909" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A910" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A911" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A912" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A913" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A914" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A915" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A916" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A917" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A918" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A919" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A920" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A921" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A922" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A923" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A924" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A925" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A926" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A927" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A928" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A929" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A930" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A931" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A932" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A933" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A934" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A935" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A936" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A937" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A938" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A939" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A940" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A941" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A942" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A943" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A944" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A945" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A946" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A947" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A948" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A949" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A950" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A951" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A952" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A953" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A954" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A955" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A956" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A957" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A958" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A959" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A960" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A961" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A962" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A963" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A964" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A965" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A966" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A967" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A968" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A969" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A970" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A971" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A972" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A973" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A974" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A975" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A976" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A977" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A978" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A979" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A980" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A981" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A982" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A983" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A984" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A985" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A986" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A987" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A988" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A989" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A990" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A991" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A992" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A993" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A994" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A995" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A996" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A997" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A998" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A999" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1000" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1001" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1002" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1003" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1004" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1005" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1006" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1007" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1008" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1009" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1010" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1011" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1012" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1013" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1014" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1015" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1016" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1017" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1018" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1019" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1020" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1021" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1022" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1023" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1024" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1025" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1026" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1027" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1028" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1029" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1030" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1031" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1032" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1033" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1034" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1035" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1036" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1037" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1038" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1039" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1040" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1041" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1042" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1043" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1044" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1045" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1046" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1047" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1048" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1049" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1050" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1051" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1052" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1053" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1054" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1055" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1056" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1057" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1058" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1059" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1060" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1061" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1062" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1063" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1064" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1065" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1066" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1067" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1068" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1069" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1070" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1071" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1072" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1073" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1074" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1075" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1076" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1077" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1078" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1079" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1080" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1081" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1082" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1083" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1084" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1085" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1086" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1087" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1088" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1089" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1090" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1091" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1092" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1093" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1094" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1095" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1096" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1097" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1098" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1099" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1100" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1101" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1102" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1103" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1104" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1105" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1106" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1107" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1108" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1109" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1110" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1111" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1112" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1113" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1114" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1115" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1116" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1117" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1118" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1119" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1120" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1121" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1122" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1123" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1124" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1125" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1126" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1127" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1128" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1129" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1130" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1131" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1132" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1133" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1134" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1135" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1136" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1137" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1138" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1139" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1140" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1141" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1142" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1143" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1144" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1145" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1146" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1147" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1148" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1149" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1150" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1151" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1152" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1153" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1154" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1155" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1156" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1157" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1158" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1159" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1160" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1161" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1162" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1163" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1164" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1165" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1166" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1167" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1168" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1169" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1170" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1171" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1172" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1173" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1174" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1175" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1176" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1177" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1178" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1179" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1180" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1181" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1182" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1183" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1184" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1185" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1186" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1187" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1188" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1189" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1190" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1191" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1192" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1193" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1194" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1195" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1196" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1197" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1198" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1199" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1200" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1201" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1202" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1203" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1204" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1205" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1206" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1207" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1208" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1209" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1210" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1211" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1212" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1213" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1214" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1215" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1216" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1217" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1218" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1219" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1220" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1221" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1222" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1223" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1224" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1225" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1226" t="s">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1227" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1228" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1229" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1230" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1231" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1232" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1233" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1234" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1235" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1236" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1237" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1238" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1239" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1240" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1241" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1242" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1243" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1244" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1245" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1246" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1247" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1248" t="s">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1249" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1250" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1251" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1252" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1253" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1254" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1255" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1256" t="s">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1257" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1258" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1259" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1260" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1261" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1262" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1263" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1264" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1265" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1266" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1267" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1268" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1269" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1270" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1271" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1272" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1273" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1274" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1275" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1276" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1277" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1278" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1279" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1280" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1281" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1282" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1283" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1284" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1285" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1286" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1287" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1288" t="s">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1289" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1290" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1291" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1292" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1293" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1294" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1295" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1296" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1297" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1298" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1299" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1300" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1301" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1302" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1303" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1304" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1305" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1306" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1307" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1308" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1309" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1310" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1311" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1312" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1313" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1314" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1315" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1316" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1317" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1318" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1319" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1320" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1321" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1322" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1323" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1324" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1325" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1326" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1327" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1328" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1329" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1330" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1331" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1332" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1333" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1334" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1335" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1336" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1337" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1338" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1339" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1340" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1341" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1342" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1343" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1344" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1345" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1346" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1347" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1348" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1349" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1350" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1351" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1352" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1353" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1354" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1355" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1356" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1357" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1358" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1359" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1360" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1361" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1362" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1363" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1364" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1365" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1366" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1367" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1368" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1369" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1370" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1371" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1372" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1373" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1374" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1375" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1376" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1377" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1378" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1379" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1380" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1381" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1382" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1383" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1384" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1385" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1386" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1387" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1388" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1389" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1390" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1391" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1392" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1393" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1394" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1395" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1396" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1397" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1398" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1399" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1400" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1401" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1402" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A384C9-0DB3-4A4C-BAE6-E7574587BA3A}">
   <dimension ref="A1:A2646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2627" workbookViewId="0">
-      <selection activeCell="A2646" sqref="A2646"/>
+    <sheetView topLeftCell="A2627" workbookViewId="0">
+      <selection activeCell="A1246" sqref="A1246:XFD2646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25673,7 +32697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78EC66D-ECC3-4C47-8580-229C75706D42}">
   <dimension ref="A1:A4005"/>
   <sheetViews>
